--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/67/word_level_predictions_67.xlsx
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J63" s="2" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K63" s="2" t="b">
+      <c r="K65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="2" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K64" s="2" t="b">
+      <c r="K70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
